--- a/interface_atuo_cases0508/test_data/接口清单.xlsx
+++ b/interface_atuo_cases0508/test_data/接口清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22463" windowHeight="8207"/>
+    <workbookView windowWidth="22905" windowHeight="5010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,11 +196,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +217,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -224,19 +245,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -244,9 +296,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,59 +342,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -321,32 +350,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,49 +381,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,67 +531,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,49 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,15 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -600,6 +597,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,8 +643,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,8 +652,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,21 +672,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -674,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,144 +692,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,13 +1162,13 @@
   <sheetPr/>
   <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="127.12962962963" customWidth="1"/>
+    <col min="1" max="1" width="127.133333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1222,7 +1237,7 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1292,162 +1307,162 @@
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="32" s="1" customFormat="1" spans="1:1">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" t="s">
+      <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
     </row>
